--- a/资产负债表/688618.xlsx
+++ b/资产负债表/688618.xlsx
@@ -732,7 +732,11 @@
           <t>688618</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>016015</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>10000077735</t>
@@ -743,7 +747,11 @@
           <t>三旺通信</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>通讯行业</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>kcb</t>
@@ -761,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -781,47 +789,49 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>321953087.56</v>
+        <v>141949969.33</v>
       </c>
       <c r="P2" t="n">
-        <v>2632332.33</v>
+        <v>1372289.09</v>
       </c>
       <c r="Q2" t="n">
-        <v>150617776.65</v>
+        <v>70656519.59999999</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>77599213.48999999</v>
+        <v>35232251.34</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>50976914.87</v>
+        <v>22857516.57</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>69005433.87</v>
+        <v>32848460.38</v>
       </c>
       <c r="X2" t="n">
-        <v>39946545.11</v>
+        <v>17502019.36</v>
       </c>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Z2" t="n">
+        <v>4015091.91</v>
+      </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>252947653.69</v>
+        <v>109101508.95</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>458.5692440774</v>
+        <v>422.574935337</v>
       </c>
       <c r="AG2" t="n">
-        <v>21.4333816125</v>
+        <v>23.1408717699</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688618.xlsx
+++ b/资产负债表/688618.xlsx
@@ -784,54 +784,70 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-11 00:00:00</t>
+          <t>2020-12-25 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>141949969.33</v>
+        <v>267978244.7</v>
       </c>
       <c r="P2" t="n">
-        <v>1372289.09</v>
+        <v>2366743.57</v>
       </c>
       <c r="Q2" t="n">
-        <v>70656519.59999999</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>125992468.46</v>
+      </c>
+      <c r="R2" t="n">
+        <v>305.7587276223</v>
+      </c>
       <c r="S2" t="n">
-        <v>35232251.34</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>66829709.97</v>
+      </c>
+      <c r="T2" t="n">
+        <v>34.4590737332</v>
+      </c>
       <c r="U2" t="n">
-        <v>22857516.57</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>36169359.51</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6.1949635681</v>
+      </c>
       <c r="W2" t="n">
-        <v>32848460.38</v>
+        <v>44062196.42</v>
       </c>
       <c r="X2" t="n">
-        <v>17502019.36</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>26582806.35</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>21.4180695448</v>
+      </c>
       <c r="Z2" t="n">
-        <v>4015091.91</v>
-      </c>
-      <c r="AA2" t="inlineStr"/>
+        <v>1500296.7</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-64.264334803</v>
+      </c>
       <c r="AB2" t="n">
-        <v>109101508.95</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>223916048.28</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>85.8515711889</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>68.4135918099</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>14.0384580679</v>
+      </c>
       <c r="AF2" t="n">
-        <v>422.574935337</v>
+        <v>597.3124881277</v>
       </c>
       <c r="AG2" t="n">
-        <v>23.1408717699</v>
+        <v>16.4424528078</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688618.xlsx
+++ b/资产负债表/688618.xlsx
@@ -789,65 +789,49 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>267978244.7</v>
+        <v>141949969.33</v>
       </c>
       <c r="P2" t="n">
-        <v>2366743.57</v>
+        <v>1372289.09</v>
       </c>
       <c r="Q2" t="n">
-        <v>125992468.46</v>
-      </c>
-      <c r="R2" t="n">
-        <v>305.7587276223</v>
-      </c>
+        <v>70656519.59999999</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>66829709.97</v>
-      </c>
-      <c r="T2" t="n">
-        <v>34.4590737332</v>
-      </c>
+        <v>35232251.34</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>36169359.51</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6.1949635681</v>
-      </c>
+        <v>22857516.57</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>44062196.42</v>
+        <v>32848460.38</v>
       </c>
       <c r="X2" t="n">
-        <v>26582806.35</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>21.4180695448</v>
-      </c>
+        <v>17502019.36</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>1500296.7</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-64.264334803</v>
-      </c>
+        <v>4015091.91</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>223916048.28</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>85.8515711889</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>68.4135918099</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>14.0384580679</v>
-      </c>
+        <v>109101508.95</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>597.3124881277</v>
+        <v>422.574935337</v>
       </c>
       <c r="AG2" t="n">
-        <v>16.4424528078</v>
+        <v>23.1408717699</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
